--- a/Inputs/Daman/benefits.xlsx
+++ b/Inputs/Daman/benefits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="130">
   <si>
     <t xml:space="preserve">User Type</t>
   </si>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">Geographical Coverage</t>
   </si>
   <si>
-    <t xml:space="preserve">Worldwide</t>
+    <t xml:space="preserve">Worldwide including USA</t>
   </si>
   <si>
     <t xml:space="preserve">Worldwide excluding USA &amp; Canada</t>
@@ -142,28 +142,31 @@
     <t xml:space="preserve">Covered up to AED 150,000 subject to declaration *Waiting period of 6 months applicable if evidence of COC is not provided</t>
   </si>
   <si>
+    <t xml:space="preserve">In-patient (Hospitalization &amp; Surgery) TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accommodation Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private Room (Standard Suite)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private Room (Deluxe)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private Room </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semi-private Room (Shared)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starter</t>
+  </si>
+  <si>
     <t xml:space="preserve">In-patient (Hospitalization &amp; Surgery)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accommodation Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Private Room (Standard Suite)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Private Room (Deluxe)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Private Room </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Private Room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semi-private Room (Shared)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Starter</t>
   </si>
   <si>
     <t xml:space="preserve">Diagnostics &amp; Test</t>
@@ -416,7 +419,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -437,6 +440,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -481,12 +489,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -509,14 +521,15 @@
   </sheetPr>
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I46" activeCellId="0" sqref="I46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.26"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -578,10 +591,10 @@
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -748,7 +761,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>37</v>
@@ -774,7 +787,7 @@
         <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>37</v>
@@ -800,7 +813,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>37</v>
@@ -826,7 +839,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>37</v>
@@ -852,25 +865,25 @@
         <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -878,7 +891,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -886,25 +899,25 @@
         <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -912,25 +925,25 @@
         <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -938,25 +951,25 @@
         <v>30</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -964,25 +977,25 @@
         <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -990,25 +1003,25 @@
         <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1016,25 +1029,25 @@
         <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1042,25 +1055,25 @@
         <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1068,7 +1081,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1076,25 +1089,25 @@
         <v>35</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1102,25 +1115,25 @@
         <v>35</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1128,25 +1141,25 @@
         <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1154,25 +1167,25 @@
         <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1180,7 +1193,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1188,25 +1201,25 @@
         <v>35</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1214,13 +1227,13 @@
         <v>35</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1228,7 +1241,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1236,25 +1249,25 @@
         <v>35</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1262,25 +1275,25 @@
         <v>35</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1288,25 +1301,25 @@
         <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1314,25 +1327,25 @@
         <v>30</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1340,25 +1353,25 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1366,25 +1379,25 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1392,7 +1405,7 @@
         <v>30</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1400,25 +1413,25 @@
         <v>30</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1426,25 +1439,25 @@
         <v>30</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1452,7 +1465,7 @@
         <v>28</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1460,25 +1473,25 @@
         <v>8</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1486,25 +1499,25 @@
         <v>8</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1512,25 +1525,25 @@
         <v>8</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1538,25 +1551,25 @@
         <v>8</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/Daman/benefits.xlsx
+++ b/Inputs/Daman/benefits.xlsx
@@ -445,6 +445,7 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -522,10 +523,10 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.58"/>
